--- a/DDFrameWork/data/input.xlsx
+++ b/DDFrameWork/data/input.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="16260" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="valid login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="valid contact" sheetId="1" r:id="rId1"/>
+    <sheet name="valid career" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,28 +16,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>abcd</t>
   </si>
   <si>
-    <t>acbd</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>:abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone Number</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>software tester</t>
+  </si>
+  <si>
+    <t>DiscoverDollar</t>
+  </si>
+  <si>
+    <t>i want to know more about the software testing</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t>contactno</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>uploadfile</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>I am looking opportunity to upgrade my testing knowledge and learn more testing skills</t>
+  </si>
+  <si>
+    <t>E:\resumee\Syed.doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,13 +113,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,36 +427,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5647</v>
+      <c r="C2" s="1">
+        <v>7788997788</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -405,12 +485,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>7889987785</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DDFrameWork/data/input.xlsx
+++ b/DDFrameWork/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="16260" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="168" windowWidth="16260" windowHeight="5712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="valid contact" sheetId="1" r:id="rId1"/>
